--- a/100runs/run098/NotionalETEOutput098.xlsx
+++ b/100runs/run098/NotionalETEOutput098.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,10 +52,31 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_176.MISSILE_BRAVER_176</t>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_185.MISSILE_BRAVER_185</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_112.MISSILE_HELLMASKER_112</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_200.MISSILE_HIGHWIND_200</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_4.MISSILE_HELLMASKER_4</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G2">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H2">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I2">
-        <v>-2005.478838088193</v>
+        <v>1114861.30042674</v>
       </c>
       <c r="J2">
-        <v>1605.511909782037</v>
+        <v>4843222.805956912</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.10570536</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G3">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H3">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I3">
-        <v>-1965.885345760992</v>
+        <v>1114890.91442169</v>
       </c>
       <c r="J3">
-        <v>1566.456557611248</v>
+        <v>4843174.154373384</v>
       </c>
       <c r="K3">
-        <v>362.3369138001129</v>
+        <v>3984669.90137592</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G4">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H4">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I4">
-        <v>-1925.31690011058</v>
+        <v>1114921.257634021</v>
       </c>
       <c r="J4">
-        <v>1527.40120544046</v>
+        <v>4843125.502789856</v>
       </c>
       <c r="K4">
-        <v>706.6060481853651</v>
+        <v>3984958.548401797</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G5">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H5">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I5">
-        <v>-1883.749493808311</v>
+        <v>1114952.34802004</v>
       </c>
       <c r="J5">
-        <v>1488.345853269672</v>
+        <v>4843076.851206329</v>
       </c>
       <c r="K5">
-        <v>1032.807403155759</v>
+        <v>3985232.04678299</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G6">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H6">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I6">
-        <v>-1841.158528367162</v>
+        <v>1114984.203978213</v>
       </c>
       <c r="J6">
-        <v>1449.290501098884</v>
+        <v>4843028.199622802</v>
       </c>
       <c r="K6">
-        <v>1340.940978711293</v>
+        <v>3985490.396519499</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G7">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H7">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I7">
-        <v>-1797.518799584993</v>
+        <v>1115016.844360048</v>
       </c>
       <c r="J7">
-        <v>1410.235148928096</v>
+        <v>4842979.548039274</v>
       </c>
       <c r="K7">
-        <v>1631.006774851969</v>
+        <v>3985733.597611325</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G8">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H8">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I8">
-        <v>-1752.804482629378</v>
+        <v>1115050.288481258</v>
       </c>
       <c r="J8">
-        <v>1371.179796757307</v>
+        <v>4842930.896455746</v>
       </c>
       <c r="K8">
-        <v>1903.004791577785</v>
+        <v>3985961.650058467</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G9">
-        <v>-140.2566890329726</v>
+        <v>4841120.062731517</v>
       </c>
       <c r="H9">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I9">
-        <v>-1706.989116755149</v>
+        <v>1115084.556133185</v>
       </c>
       <c r="J9">
-        <v>1332.124444586519</v>
+        <v>4842882.244872219</v>
       </c>
       <c r="K9">
-        <v>2156.935028888742</v>
+        <v>3986174.553860927</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>243.9215252796863</v>
+        <v>1116580.287014269</v>
       </c>
       <c r="G10">
-        <v>-117.0963617075672</v>
+        <v>4841136.575535377</v>
       </c>
       <c r="H10">
-        <v>1225.429296462221</v>
+        <v>3985230.782513564</v>
       </c>
       <c r="I10">
-        <v>-1660.04558964563</v>
+        <v>1115119.667594514</v>
       </c>
       <c r="J10">
-        <v>1293.069092415731</v>
+        <v>4842833.593288692</v>
       </c>
       <c r="K10">
-        <v>2392.797486784839</v>
+        <v>3986372.309018702</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>189.3115586383653</v>
+        <v>1116531.606372757</v>
       </c>
       <c r="G11">
-        <v>-93.93603438216176</v>
+        <v>4841153.088339236</v>
       </c>
       <c r="H11">
-        <v>1509.720647259322</v>
+        <v>3985430.037043043</v>
       </c>
       <c r="I11">
-        <v>-1611.946121368293</v>
+        <v>1115155.643643277</v>
       </c>
       <c r="J11">
-        <v>1254.013740244943</v>
+        <v>4842784.941705164</v>
       </c>
       <c r="K11">
-        <v>2610.592165266077</v>
+        <v>3986554.915531794</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>157.2309427682434</v>
+        <v>1116503.008937953</v>
       </c>
       <c r="G12">
-        <v>-70.77570705675636</v>
+        <v>4841169.601143095</v>
       </c>
       <c r="H12">
-        <v>1679.059115005725</v>
+        <v>3985548.723231063</v>
       </c>
       <c r="I12">
-        <v>-1562.662247935325</v>
+        <v>1115192.505569143</v>
       </c>
       <c r="J12">
-        <v>1214.958388074155</v>
+        <v>4842736.290121636</v>
       </c>
       <c r="K12">
-        <v>2810.319064332456</v>
+        <v>3986722.373400203</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>136.9793044779637</v>
+        <v>1116484.956139091</v>
       </c>
       <c r="G13">
-        <v>-47.61537973135092</v>
+        <v>4841186.113946955</v>
       </c>
       <c r="H13">
-        <v>1800.073872754583</v>
+        <v>3985633.540227949</v>
       </c>
       <c r="I13">
-        <v>-1512.164804459402</v>
+        <v>1115230.275186021</v>
       </c>
       <c r="J13">
-        <v>1175.903035903367</v>
+        <v>4842687.638538109</v>
       </c>
       <c r="K13">
-        <v>2991.978183983977</v>
+        <v>3986874.682623928</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>122.8558941405486</v>
+        <v>1116472.366190445</v>
       </c>
       <c r="G14">
-        <v>-24.45505240594548</v>
+        <v>4841202.626750813</v>
       </c>
       <c r="H14">
-        <v>1894.307999779915</v>
+        <v>3985699.587177983</v>
       </c>
       <c r="I14">
-        <v>-1460.423907894682</v>
+        <v>1115268.974844968</v>
       </c>
       <c r="J14">
-        <v>1136.847683732579</v>
+        <v>4842638.986954581</v>
       </c>
       <c r="K14">
-        <v>3155.569524220638</v>
+        <v>3987011.84320297</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>112.3194070809544</v>
+        <v>1116462.973711729</v>
       </c>
       <c r="G15">
-        <v>-1.29472508054007</v>
+        <v>4841219.139554673</v>
       </c>
       <c r="H15">
-        <v>1971.493059278824</v>
+        <v>3985753.684753129</v>
       </c>
       <c r="I15">
-        <v>-1407.408939352807</v>
+        <v>1115308.627447413</v>
       </c>
       <c r="J15">
-        <v>1097.792331561791</v>
+        <v>4842590.335371054</v>
       </c>
       <c r="K15">
-        <v>3301.093085042438</v>
+        <v>3987133.855137328</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>104.0813455771481</v>
+        <v>1116455.630104994</v>
       </c>
       <c r="G16">
-        <v>21.86560224486536</v>
+        <v>4841235.652358532</v>
       </c>
       <c r="H16">
-        <v>2036.863170438135</v>
+        <v>3985799.501450347</v>
       </c>
       <c r="I16">
-        <v>-1353.088525983465</v>
+        <v>1115349.256458713</v>
       </c>
       <c r="J16">
-        <v>1058.736979391002</v>
+        <v>4842541.683787526</v>
       </c>
       <c r="K16">
-        <v>3428.548866449381</v>
+        <v>3987240.718427003</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>97.41615398764206</v>
+        <v>1116449.68859244</v>
       </c>
       <c r="G17">
-        <v>45.0259295702708</v>
+        <v>4841252.165162391</v>
       </c>
       <c r="H17">
-        <v>2093.559836197299</v>
+        <v>3985839.239090719</v>
       </c>
       <c r="I17">
-        <v>-1297.430522408767</v>
+        <v>1115390.885922039</v>
       </c>
       <c r="J17">
-        <v>1019.681627220214</v>
+        <v>4842493.032203998</v>
       </c>
       <c r="K17">
-        <v>3537.936868441463</v>
+        <v>3987332.433071994</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>91.88167002754189</v>
+        <v>1116444.755019941</v>
       </c>
       <c r="G18">
-        <v>68.18625689567621</v>
+        <v>4841268.677966251</v>
       </c>
       <c r="H18">
-        <v>2143.617381717874</v>
+        <v>3985874.32349498</v>
       </c>
       <c r="I18">
-        <v>-1240.401991700466</v>
+        <v>1115433.540472601</v>
       </c>
       <c r="J18">
-        <v>980.6262750494262</v>
+        <v>4842444.380620471</v>
       </c>
       <c r="K18">
-        <v>3629.257091018687</v>
+        <v>3987408.999072302</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>87.19161128953473</v>
+        <v>1116440.574188453</v>
       </c>
       <c r="G19">
-        <v>91.34658422108167</v>
+        <v>4841285.190770109</v>
       </c>
       <c r="H19">
-        <v>2188.428957982546</v>
+        <v>3985905.73109679</v>
       </c>
       <c r="I19">
-        <v>-1181.96918588876</v>
+        <v>1115477.245352229</v>
       </c>
       <c r="J19">
-        <v>941.5709228786379</v>
+        <v>4842395.729036944</v>
       </c>
       <c r="K19">
-        <v>3702.509534181052</v>
+        <v>3987470.416427926</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>83.15158325059001</v>
+        <v>1116436.972810009</v>
       </c>
       <c r="G20">
-        <v>114.5069115464871</v>
+        <v>4841301.703573969</v>
       </c>
       <c r="H20">
-        <v>2228.990551589476</v>
+        <v>3985934.159964662</v>
       </c>
       <c r="I20">
-        <v>-1122.097525991136</v>
+        <v>1115522.02642431</v>
       </c>
       <c r="J20">
-        <v>902.51557070785</v>
+        <v>4842347.077453416</v>
       </c>
       <c r="K20">
-        <v>3757.694197928557</v>
+        <v>3987516.685138867</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>79.62443001733548</v>
+        <v>1116433.828620539</v>
       </c>
       <c r="G21">
-        <v>137.6672388718925</v>
+        <v>4841318.216377829</v>
       </c>
       <c r="H21">
-        <v>2266.038935939477</v>
+        <v>3985960.126489395</v>
       </c>
       <c r="I21">
-        <v>-1060.75158154945</v>
+        <v>1115567.910189093</v>
       </c>
       <c r="J21">
-        <v>863.4602185370618</v>
+        <v>4842298.425869889</v>
       </c>
       <c r="K21">
-        <v>3794.811082261203</v>
+        <v>3987547.805205124</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>76.51028707987885</v>
+        <v>1116431.052598408</v>
       </c>
       <c r="G22">
-        <v>160.827566197298</v>
+        <v>4841334.729181687</v>
       </c>
       <c r="H22">
-        <v>2300.134484000504</v>
+        <v>3985984.023425995</v>
       </c>
       <c r="I22">
-        <v>-997.8950496631215</v>
+        <v>1115614.923799372</v>
       </c>
       <c r="J22">
-        <v>824.4048663662737</v>
+        <v>4842249.774286361</v>
       </c>
       <c r="K22">
-        <v>3813.860187178989</v>
+        <v>3987563.776626698</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>73.73450535256237</v>
+        <v>1116428.578199622</v>
       </c>
       <c r="G23">
-        <v>183.9878935227034</v>
+        <v>4841351.241985547</v>
       </c>
       <c r="H23">
-        <v>2331.713342277676</v>
+        <v>3986006.156461453</v>
       </c>
       <c r="I23">
-        <v>-933.4907335060411</v>
+        <v>1115663.095076552</v>
       </c>
       <c r="J23">
-        <v>785.3495141954855</v>
+        <v>4842201.122702834</v>
       </c>
       <c r="K23">
-        <v>3814.841512681916</v>
+        <v>3987564.599403588</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>71.240027094138</v>
+        <v>1116426.354561533</v>
       </c>
       <c r="G24">
-        <v>207.1482208481088</v>
+        <v>4841367.754789406</v>
       </c>
       <c r="H24">
-        <v>2361.121636490594</v>
+        <v>3986026.768188858</v>
       </c>
       <c r="I24">
-        <v>-867.5005203144773</v>
+        <v>1115712.452527116</v>
       </c>
       <c r="J24">
-        <v>746.2941620246972</v>
+        <v>4842152.471119306</v>
       </c>
       <c r="K24">
-        <v>3797.755058769985</v>
+        <v>3987550.273535795</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>68.98239846140454</v>
+        <v>1116424.342056913</v>
       </c>
       <c r="G25">
-        <v>230.3085481735142</v>
+        <v>4841384.267593266</v>
       </c>
       <c r="H25">
-        <v>2388.638658574717</v>
+        <v>3986046.054358742</v>
       </c>
       <c r="I25">
-        <v>-799.8853588329536</v>
+        <v>1115763.025359492</v>
       </c>
       <c r="J25">
-        <v>707.2388098539093</v>
+        <v>4842103.819535778</v>
       </c>
       <c r="K25">
-        <v>3762.600825443194</v>
+        <v>3987520.799023318</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>66.92640604351304</v>
+        <v>1116422.509295679</v>
       </c>
       <c r="G26">
-        <v>253.4688754989197</v>
+        <v>4841400.780397125</v>
       </c>
       <c r="H26">
-        <v>2414.493037746859</v>
+        <v>3986064.175213078</v>
       </c>
       <c r="I26">
-        <v>-730.6052362047556</v>
+        <v>1115814.843501339</v>
       </c>
       <c r="J26">
-        <v>668.183457683121</v>
+        <v>4842055.167952251</v>
       </c>
       <c r="K26">
-        <v>3709.378812701543</v>
+        <v>3987476.175866158</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>65.04374798546615</v>
+        <v>1116420.831048874</v>
       </c>
       <c r="G27">
-        <v>276.6292028243251</v>
+        <v>4841417.293200984</v>
       </c>
       <c r="H27">
-        <v>2438.87429837729</v>
+        <v>3986081.263585979</v>
       </c>
       <c r="I27">
-        <v>-659.6191542933824</v>
+        <v>1115867.937617257</v>
       </c>
       <c r="J27">
-        <v>629.1281055123328</v>
+        <v>4842006.516368723</v>
       </c>
       <c r="K27">
-        <v>3638.089020545034</v>
+        <v>3987416.404064314</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>63.31138384929391</v>
+        <v>1116419.286777697</v>
       </c>
       <c r="G28">
-        <v>299.7895301497305</v>
+        <v>4841433.806004844</v>
       </c>
       <c r="H28">
-        <v>2461.941299020323</v>
+        <v>3986097.430818457</v>
       </c>
       <c r="I28">
-        <v>-586.8851054209399</v>
+        <v>1115922.339126934</v>
       </c>
       <c r="J28">
-        <v>590.0727533415449</v>
+        <v>4841957.864785195</v>
       </c>
       <c r="K28">
-        <v>3548.731448973665</v>
+        <v>3987341.483617788</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>61.71034137718555</v>
+        <v>1116417.859569818</v>
       </c>
       <c r="G29">
-        <v>322.949857475136</v>
+        <v>4841450.318808703</v>
       </c>
       <c r="H29">
-        <v>2483.828511024163</v>
+        <v>3986112.771158981</v>
       </c>
       <c r="I29">
-        <v>-512.3600475091106</v>
+        <v>1115978.080223738</v>
       </c>
       <c r="J29">
-        <v>551.0174011707566</v>
+        <v>4841909.213201668</v>
       </c>
       <c r="K29">
-        <v>3441.306097987437</v>
+        <v>3987251.414526578</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>60.22483791397448</v>
+        <v>1116416.5353562</v>
       </c>
       <c r="G30">
-        <v>346.1101848005413</v>
+        <v>4841466.831612562</v>
       </c>
       <c r="H30">
-        <v>2504.650768207842</v>
+        <v>3986127.365092445</v>
       </c>
       <c r="I30">
-        <v>-435.9998786079989</v>
+        <v>1116035.19389377</v>
       </c>
       <c r="J30">
-        <v>511.9620489999684</v>
+        <v>4841860.561618141</v>
       </c>
       <c r="K30">
-        <v>3315.812967586349</v>
+        <v>3987146.196790684</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>58.84162297373901</v>
+        <v>1116415.302325037</v>
       </c>
       <c r="G31">
-        <v>369.2705121259468</v>
+        <v>4841483.344416421</v>
       </c>
       <c r="H31">
-        <v>2524.506913713245</v>
+        <v>3986141.28189617</v>
       </c>
       <c r="I31">
-        <v>-357.7594107977648</v>
+        <v>1116093.713935384</v>
       </c>
       <c r="J31">
-        <v>472.9066968291804</v>
+        <v>4841811.910034613</v>
       </c>
       <c r="K31">
-        <v>3172.252057770404</v>
+        <v>3987025.830410106</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>57.54947908247801</v>
+        <v>1116414.150476805</v>
       </c>
       <c r="G32">
-        <v>392.4308394513523</v>
+        <v>4841499.857220281</v>
       </c>
       <c r="H32">
-        <v>2543.48263772127</v>
+        <v>3986154.581628815</v>
       </c>
       <c r="I32">
-        <v>-277.5923434476142</v>
+        <v>1116153.674979184</v>
       </c>
       <c r="J32">
-        <v>433.8513446583921</v>
+        <v>4841763.258451086</v>
       </c>
       <c r="K32">
-        <v>3010.623368539597</v>
+        <v>3986890.315384845</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>56.3388377758239</v>
+        <v>1116413.071281942</v>
       </c>
       <c r="G33">
-        <v>415.5911667767576</v>
+        <v>4841516.370024139</v>
       </c>
       <c r="H33">
-        <v>2561.652712339477</v>
+        <v>3986167.31669676</v>
       </c>
       <c r="I33">
-        <v>-195.4512358163153</v>
+        <v>1116215.112508525</v>
       </c>
       <c r="J33">
-        <v>394.7959924876041</v>
+        <v>4841714.606867558</v>
       </c>
       <c r="K33">
-        <v>2830.926899893933</v>
+        <v>3986739.651714901</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>55.20148063423272</v>
+        <v>1116412.057414352</v>
       </c>
       <c r="G34">
-        <v>438.7514941021631</v>
+        <v>4841532.882827999</v>
       </c>
       <c r="H34">
-        <v>2579.082771092349</v>
+        <v>3986179.533101324</v>
       </c>
       <c r="I34">
-        <v>-111.2874789780289</v>
+        <v>1116278.062880504</v>
       </c>
       <c r="J34">
-        <v>355.7406403168159</v>
+        <v>4841665.955284031</v>
       </c>
       <c r="K34">
-        <v>2633.162651833408</v>
+        <v>3986573.839400272</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>54.13030397125426</v>
+        <v>1116411.102541637</v>
       </c>
       <c r="G35">
-        <v>461.9118214275686</v>
+        <v>4841549.395631858</v>
       </c>
       <c r="H35">
-        <v>2595.830740021593</v>
+        <v>3986191.271441796</v>
       </c>
       <c r="I35">
-        <v>-25.0512670568366</v>
+        <v>1116342.56334748</v>
       </c>
       <c r="J35">
-        <v>316.6852881460277</v>
+        <v>4841617.303700503</v>
       </c>
       <c r="K35">
-        <v>2417.330624358025</v>
+        <v>3986392.878440961</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>53.11913176167398</v>
+        <v>1116410.201158339</v>
       </c>
       <c r="G36">
-        <v>485.072148752974</v>
+        <v>4841565.908435717</v>
       </c>
       <c r="H36">
-        <v>2611.947999171288</v>
+        <v>3986202.567729493</v>
       </c>
       <c r="I36">
-        <v>63.30843224705507</v>
+        <v>1116408.652079117</v>
       </c>
       <c r="J36">
-        <v>277.6299359752397</v>
+        <v>4841568.652116975</v>
       </c>
       <c r="K36">
-        <v>2183.430817467782</v>
+        <v>3986196.768836967</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>52.16256554642934</v>
+        <v>1116409.348452141</v>
       </c>
       <c r="G37">
-        <v>508.2324760783794</v>
+        <v>4841582.421239577</v>
       </c>
       <c r="H37">
-        <v>2627.480333204644</v>
+        <v>3986213.454054036</v>
       </c>
       <c r="I37">
-        <v>153.8439078568721</v>
+        <v>1116476.368184969</v>
       </c>
       <c r="J37">
-        <v>238.5745838044514</v>
+        <v>4841520.000533448</v>
       </c>
       <c r="K37">
-        <v>1931.46323116268</v>
+        <v>3985985.510588288</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>51.25586297920802</v>
+        <v>1116408.540195602</v>
       </c>
       <c r="G38">
-        <v>531.3928034037848</v>
+        <v>4841598.934043435</v>
       </c>
       <c r="H38">
-        <v>2642.468715487241</v>
+        <v>3986223.959132896</v>
       </c>
       <c r="I38">
-        <v>246.6087362624715</v>
+        <v>1116545.75173763</v>
       </c>
       <c r="J38">
-        <v>199.5192316336634</v>
+        <v>4841471.34894992</v>
       </c>
       <c r="K38">
-        <v>1661.42786544272</v>
+        <v>3985759.103694926</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>50.39483877416927</v>
+        <v>1116407.772657857</v>
       </c>
       <c r="G39">
-        <v>554.5531307291902</v>
+        <v>4841615.446847295</v>
       </c>
       <c r="H39">
-        <v>2656.949959463794</v>
+        <v>3986234.108767933</v>
       </c>
       <c r="I39">
-        <v>341.6578132254804</v>
+        <v>1116616.843796443</v>
       </c>
       <c r="J39">
-        <v>160.4638794628752</v>
+        <v>4841422.697366392</v>
       </c>
       <c r="K39">
-        <v>1373.324720307899</v>
+        <v>3985517.548156881</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>49.57578333176843</v>
+        <v>1116407.042532079</v>
       </c>
       <c r="G40">
-        <v>577.7134580545957</v>
+        <v>4841631.959651154</v>
       </c>
       <c r="H40">
-        <v>2670.95726340108</v>
+        <v>3986243.926227196</v>
       </c>
       <c r="I40">
-        <v>439.047386265157</v>
+        <v>1116689.686431802</v>
       </c>
       <c r="J40">
-        <v>121.408527292087</v>
+        <v>4841374.045782865</v>
       </c>
       <c r="K40">
-        <v>1067.153795758219</v>
+        <v>3985260.843974152</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>48.7953954322284</v>
+        <v>1116406.346875482</v>
       </c>
       <c r="G41">
-        <v>600.8737853800011</v>
+        <v>4841648.472455014</v>
       </c>
       <c r="H41">
-        <v>2684.52066878243</v>
+        <v>3986253.432566202</v>
       </c>
       <c r="I41">
-        <v>538.8350879441697</v>
+        <v>1116764.322750042</v>
       </c>
       <c r="J41">
-        <v>82.35317512129895</v>
+        <v>4841325.394199338</v>
       </c>
       <c r="K41">
-        <v>742.9150917936806</v>
+        <v>3984988.99114674</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>48.05072621087616</v>
+        <v>1116405.683059376</v>
       </c>
       <c r="G42">
-        <v>624.0341127054065</v>
+        <v>4841664.985258874</v>
       </c>
       <c r="H42">
-        <v>2697.667448275071</v>
+        <v>3986262.646899859</v>
       </c>
       <c r="I42">
-        <v>641.0799699740281</v>
+        <v>1116840.796918955</v>
       </c>
       <c r="J42">
-        <v>43.29782295051074</v>
+        <v>4841276.742615811</v>
       </c>
       <c r="K42">
-        <v>400.608608414282</v>
+        <v>3984701.989674644</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>47.33913224711147</v>
+        <v>1116405.048727352</v>
       </c>
       <c r="G43">
-        <v>647.194440030812</v>
+        <v>4841681.498062733</v>
       </c>
       <c r="H43">
-        <v>2710.422435868573</v>
+        <v>3986271.586633848</v>
       </c>
       <c r="I43">
-        <v>745.8425381603042</v>
+        <v>1116919.154193922</v>
       </c>
       <c r="J43">
-        <v>4.242470779722526</v>
+        <v>4841228.091032282</v>
       </c>
       <c r="K43">
-        <v>40.23434562002439</v>
+        <v>3984399.839557865</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>46.65823606567071</v>
+        <v>1116404.441760072</v>
       </c>
       <c r="G44">
-        <v>670.3547673562174</v>
+        <v>4841698.010866592</v>
       </c>
       <c r="H44">
-        <v>2722.808309229368</v>
+        <v>3986280.267662524</v>
       </c>
       <c r="I44">
-        <v>853.1847882083711</v>
+        <v>1116999.440944698</v>
       </c>
       <c r="J44">
-        <v>-34.8128813910655</v>
+        <v>4841179.439448755</v>
       </c>
       <c r="K44">
-        <v>-338.2076965890914</v>
+        <v>3984082.540796402</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>46.00589270500485</v>
+        <v>1116403.860245465</v>
       </c>
       <c r="G45">
-        <v>693.5150946816227</v>
+        <v>4841714.523670451</v>
       </c>
       <c r="H45">
-        <v>2734.845832337817</v>
+        <v>3986288.704538976</v>
       </c>
       <c r="I45">
-        <v>963.1702424108129</v>
+        <v>1117081.704682849</v>
       </c>
       <c r="J45">
-        <v>-73.86823356185371</v>
+        <v>4841130.787865228</v>
       </c>
       <c r="K45">
-        <v>-734.7175182130675</v>
+        <v>3983750.093390256</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>45.38016128155754</v>
+        <v>1116403.302453381</v>
       </c>
       <c r="G46">
-        <v>716.6754220070283</v>
+        <v>4841731.03647431</v>
       </c>
       <c r="H46">
-        <v>2746.554064929026</v>
+        <v>3986296.910621819</v>
       </c>
       <c r="I46">
-        <v>1075.863987238228</v>
+        <v>1117165.994089871</v>
       </c>
       <c r="J46">
-        <v>-112.9235857326419</v>
+        <v>4841082.1362817</v>
       </c>
       <c r="K46">
-        <v>-1149.295119251904</v>
+        <v>3983402.497339427</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>44.77928069115009</v>
+        <v>1116402.766813929</v>
       </c>
       <c r="G47">
-        <v>739.8357493324337</v>
+        <v>4841747.549278169</v>
       </c>
       <c r="H47">
-        <v>2757.950544042621</v>
+        <v>3986304.898202437</v>
       </c>
       <c r="I47">
-        <v>1191.332711855674</v>
+        <v>1117252.359045996</v>
       </c>
       <c r="J47">
-        <v>-151.9789379034301</v>
+        <v>4841033.484698172</v>
       </c>
       <c r="K47">
-        <v>-1581.940499705599</v>
+        <v>3983039.752643913</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>44.20164875459388</v>
+        <v>1116402.251898887</v>
       </c>
       <c r="G48">
-        <v>762.996076657839</v>
+        <v>4841764.062082029</v>
       </c>
       <c r="H48">
-        <v>2769.051442023187</v>
+        <v>3986312.678615727</v>
       </c>
       <c r="I48">
-        <v>1309.644747587545</v>
+        <v>1117340.850659711</v>
       </c>
       <c r="J48">
-        <v>-191.034290074218</v>
+        <v>4840984.833114645</v>
       </c>
       <c r="K48">
-        <v>-2032.65365957415</v>
+        <v>3982661.859303717</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>43.64580424516111</v>
+        <v>1116401.756405684</v>
       </c>
       <c r="G49">
-        <v>786.1564039832446</v>
+        <v>4841780.574885888</v>
       </c>
       <c r="H49">
-        <v>2779.871704544433</v>
+        <v>3986320.262336833</v>
       </c>
       <c r="I49">
-        <v>1430.870108354238</v>
+        <v>1117431.521298004</v>
       </c>
       <c r="J49">
-        <v>-230.0896422450062</v>
+        <v>4840936.181531117</v>
       </c>
       <c r="K49">
-        <v>-2501.434598857562</v>
+        <v>3982268.817318837</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>43.11041133887857</v>
+        <v>1116401.279143533</v>
       </c>
       <c r="G50">
-        <v>809.31673130865</v>
+        <v>4841797.087689747</v>
       </c>
       <c r="H50">
-        <v>2790.425171613258</v>
+        <v>3986327.659065961</v>
       </c>
       <c r="I50">
-        <v>1555.080532104522</v>
+        <v>1117524.424617348</v>
       </c>
       <c r="J50">
-        <v>-269.1449944157944</v>
+        <v>4840887.529947589</v>
       </c>
       <c r="K50">
-        <v>-2988.283317555835</v>
+        <v>3981860.626689273</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>42.59424611094332</v>
+        <v>1116400.819021399</v>
       </c>
       <c r="G51">
-        <v>832.4770586340553</v>
+        <v>4841813.600493607</v>
       </c>
       <c r="H51">
-        <v>2800.724684011768</v>
+        <v>3986334.877802975</v>
       </c>
       <c r="I51">
-        <v>1682.349523268163</v>
+        <v>1117619.615595463</v>
       </c>
       <c r="J51">
-        <v>-308.2003465865826</v>
+        <v>4840838.878364062</v>
       </c>
       <c r="K51">
-        <v>-3493.199815668967</v>
+        <v>3981437.287415026</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>42.09618476755232</v>
+        <v>1116400.375037503</v>
       </c>
       <c r="G52">
-        <v>855.6373859594609</v>
+        <v>4841830.113297465</v>
       </c>
       <c r="H52">
-        <v>2810.782177230846</v>
+        <v>3986341.92691324</v>
       </c>
       <c r="I52">
-        <v>1812.752396253885</v>
+        <v>1117717.150563839</v>
       </c>
       <c r="J52">
-        <v>-347.2556987573709</v>
+        <v>4840790.226780535</v>
       </c>
       <c r="K52">
-        <v>-4016.184093196958</v>
+        <v>3980998.799496096</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>41.61519335562413</v>
+        <v>1116399.946270157</v>
       </c>
       <c r="G53">
-        <v>878.7977132848663</v>
+        <v>4841846.626101325</v>
       </c>
       <c r="H53">
-        <v>2820.608764618741</v>
+        <v>3986348.814185895</v>
       </c>
       <c r="I53">
-        <v>1946.366320018434</v>
+        <v>1117817.087241081</v>
       </c>
       <c r="J53">
-        <v>-386.3110509281587</v>
+        <v>4840741.575197008</v>
       </c>
       <c r="K53">
-        <v>-4557.236150139805</v>
+        <v>3980545.162932482</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2303,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>41.15031873599649</v>
+        <v>1116399.531869708</v>
       </c>
       <c r="G54">
-        <v>901.9580406102716</v>
+        <v>4841863.138905184</v>
       </c>
       <c r="H54">
-        <v>2830.214811197341</v>
+        <v>3986355.546885591</v>
       </c>
       <c r="I54">
-        <v>2083.270363733131</v>
+        <v>1117919.48476706</v>
       </c>
       <c r="J54">
-        <v>-425.3664030989469</v>
+        <v>4840692.923613479</v>
       </c>
       <c r="K54">
-        <v>-5116.355986497514</v>
+        <v>3980076.377724185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G55">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H55">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I55">
+        <v>1114859.904910842</v>
+      </c>
+      <c r="J55">
+        <v>4843221.060935525</v>
+      </c>
+      <c r="K55">
+        <v>3984362.773851934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G56">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H56">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I56">
+        <v>1114889.518868722</v>
+      </c>
+      <c r="J56">
+        <v>4843172.409369527</v>
+      </c>
+      <c r="K56">
+        <v>3984666.56926845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G57">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H57">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I57">
+        <v>1114919.862043072</v>
+      </c>
+      <c r="J57">
+        <v>4843123.757803529</v>
+      </c>
+      <c r="K57">
+        <v>3984955.216052951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G58">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H58">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I58">
+        <v>1114950.952390174</v>
+      </c>
+      <c r="J58">
+        <v>4843075.106237531</v>
+      </c>
+      <c r="K58">
+        <v>3985228.714205436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G59">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H59">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I59">
+        <v>1114982.808308471</v>
+      </c>
+      <c r="J59">
+        <v>4843026.454671532</v>
+      </c>
+      <c r="K59">
+        <v>3985487.063725905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G60">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H60">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I60">
+        <v>1115015.44864945</v>
+      </c>
+      <c r="J60">
+        <v>4842977.803105534</v>
+      </c>
+      <c r="K60">
+        <v>3985730.264614359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G61">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H61">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I61">
+        <v>1115048.892728796</v>
+      </c>
+      <c r="J61">
+        <v>4842929.151539535</v>
+      </c>
+      <c r="K61">
+        <v>3985958.316870796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G62">
+        <v>4841119.637012403</v>
+      </c>
+      <c r="H62">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I62">
+        <v>1115083.160337828</v>
+      </c>
+      <c r="J62">
+        <v>4842880.499973537</v>
+      </c>
+      <c r="K62">
+        <v>3986171.220495219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>98</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116578.304892897</v>
+      </c>
+      <c r="G63">
+        <v>4841136.149814811</v>
+      </c>
+      <c r="H63">
+        <v>3985232.190107351</v>
+      </c>
+      <c r="I63">
+        <v>1115118.271755207</v>
+      </c>
+      <c r="J63">
+        <v>4842831.848407539</v>
+      </c>
+      <c r="K63">
+        <v>3986368.975487625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>98</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116529.624337801</v>
+      </c>
+      <c r="G64">
+        <v>4841152.662617217</v>
+      </c>
+      <c r="H64">
+        <v>3985431.444707206</v>
+      </c>
+      <c r="I64">
+        <v>1115154.247758938</v>
+      </c>
+      <c r="J64">
+        <v>4842783.196841541</v>
+      </c>
+      <c r="K64">
+        <v>3986551.581848016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116501.026953763</v>
+      </c>
+      <c r="G65">
+        <v>4841169.175419625</v>
+      </c>
+      <c r="H65">
+        <v>3985550.130937147</v>
+      </c>
+      <c r="I65">
+        <v>1115191.109638662</v>
+      </c>
+      <c r="J65">
+        <v>4842734.545275542</v>
+      </c>
+      <c r="K65">
+        <v>3986719.039576391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116482.974186948</v>
+      </c>
+      <c r="G66">
+        <v>4841185.688222032</v>
+      </c>
+      <c r="H66">
+        <v>3985634.947963991</v>
+      </c>
+      <c r="I66">
+        <v>1115228.879208263</v>
+      </c>
+      <c r="J66">
+        <v>4842685.893709544</v>
+      </c>
+      <c r="K66">
+        <v>3986871.34867275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116470.384260651</v>
+      </c>
+      <c r="G67">
+        <v>4841202.201024439</v>
+      </c>
+      <c r="H67">
+        <v>3985700.994937352</v>
+      </c>
+      <c r="I67">
+        <v>1115267.578818767</v>
+      </c>
+      <c r="J67">
+        <v>4842637.242143546</v>
+      </c>
+      <c r="K67">
+        <v>3987008.509137094</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116460.991798609</v>
+      </c>
+      <c r="G68">
+        <v>4841218.713826846</v>
+      </c>
+      <c r="H68">
+        <v>3985755.092531606</v>
+      </c>
+      <c r="I68">
+        <v>1115307.231371578</v>
+      </c>
+      <c r="J68">
+        <v>4842588.590577547</v>
+      </c>
+      <c r="K68">
+        <v>3987130.520969422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116453.64820491</v>
+      </c>
+      <c r="G69">
+        <v>4841235.226629253</v>
+      </c>
+      <c r="H69">
+        <v>3985800.909245006</v>
+      </c>
+      <c r="I69">
+        <v>1115347.860332021</v>
+      </c>
+      <c r="J69">
+        <v>4842539.939011549</v>
+      </c>
+      <c r="K69">
+        <v>3987237.384169735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116447.706702903</v>
+      </c>
+      <c r="G70">
+        <v>4841251.739431661</v>
+      </c>
+      <c r="H70">
+        <v>3985840.646899413</v>
+      </c>
+      <c r="I70">
+        <v>1115389.489743238</v>
+      </c>
+      <c r="J70">
+        <v>4842491.287445551</v>
+      </c>
+      <c r="K70">
+        <v>3987329.098738031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116442.773139161</v>
+      </c>
+      <c r="G71">
+        <v>4841268.252234068</v>
+      </c>
+      <c r="H71">
+        <v>3985875.731316067</v>
+      </c>
+      <c r="I71">
+        <v>1115432.144240407</v>
+      </c>
+      <c r="J71">
+        <v>4842442.635879553</v>
+      </c>
+      <c r="K71">
+        <v>3987405.664674311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116438.592315095</v>
+      </c>
+      <c r="G72">
+        <v>4841284.765036475</v>
+      </c>
+      <c r="H72">
+        <v>3985907.13892897</v>
+      </c>
+      <c r="I72">
+        <v>1115475.849065328</v>
+      </c>
+      <c r="J72">
+        <v>4842393.984313555</v>
+      </c>
+      <c r="K72">
+        <v>3987467.081978577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116434.990943045</v>
+      </c>
+      <c r="G73">
+        <v>4841301.277838882</v>
+      </c>
+      <c r="H73">
+        <v>3985935.567806883</v>
+      </c>
+      <c r="I73">
+        <v>1115520.630081355</v>
+      </c>
+      <c r="J73">
+        <v>4842345.332747555</v>
+      </c>
+      <c r="K73">
+        <v>3987513.350650826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116431.846759155</v>
+      </c>
+      <c r="G74">
+        <v>4841317.790641289</v>
+      </c>
+      <c r="H74">
+        <v>3985961.534340787</v>
+      </c>
+      <c r="I74">
+        <v>1115566.513788703</v>
+      </c>
+      <c r="J74">
+        <v>4842296.681181557</v>
+      </c>
+      <c r="K74">
+        <v>3987544.47069106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116429.070741953</v>
+      </c>
+      <c r="G75">
+        <v>4841334.303443696</v>
+      </c>
+      <c r="H75">
+        <v>3985985.431285828</v>
+      </c>
+      <c r="I75">
+        <v>1115613.527340133</v>
+      </c>
+      <c r="J75">
+        <v>4842248.02961556</v>
+      </c>
+      <c r="K75">
+        <v>3987560.442099278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116426.596347559</v>
+      </c>
+      <c r="G76">
+        <v>4841350.816246103</v>
+      </c>
+      <c r="H76">
+        <v>3986007.564329104</v>
+      </c>
+      <c r="I76">
+        <v>1115661.698557016</v>
+      </c>
+      <c r="J76">
+        <v>4842199.378049562</v>
+      </c>
+      <c r="K76">
+        <v>3987561.26487548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116424.372713417</v>
+      </c>
+      <c r="G77">
+        <v>4841367.329048511</v>
+      </c>
+      <c r="H77">
+        <v>3986028.176063788</v>
+      </c>
+      <c r="I77">
+        <v>1115711.055945796</v>
+      </c>
+      <c r="J77">
+        <v>4842150.726483563</v>
+      </c>
+      <c r="K77">
+        <v>3987546.939019667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>98</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116422.36021237</v>
+      </c>
+      <c r="G78">
+        <v>4841383.841850918</v>
+      </c>
+      <c r="H78">
+        <v>3986047.462240484</v>
+      </c>
+      <c r="I78">
+        <v>1115761.628714869</v>
+      </c>
+      <c r="J78">
+        <v>4842102.074917564</v>
+      </c>
+      <c r="K78">
+        <v>3987517.464531837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116420.52745439</v>
+      </c>
+      <c r="G79">
+        <v>4841400.354653325</v>
+      </c>
+      <c r="H79">
+        <v>3986065.583101221</v>
+      </c>
+      <c r="I79">
+        <v>1115813.446791853</v>
+      </c>
+      <c r="J79">
+        <v>4842053.423351566</v>
+      </c>
+      <c r="K79">
+        <v>3987472.841411993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116418.849210564</v>
+      </c>
+      <c r="G80">
+        <v>4841416.867455732</v>
+      </c>
+      <c r="H80">
+        <v>3986082.671480157</v>
+      </c>
+      <c r="I80">
+        <v>1115866.540841311</v>
+      </c>
+      <c r="J80">
+        <v>4842004.771785568</v>
+      </c>
+      <c r="K80">
+        <v>3987413.069660132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116417.304942128</v>
+      </c>
+      <c r="G81">
+        <v>4841433.380258139</v>
+      </c>
+      <c r="H81">
+        <v>3986098.838718345</v>
+      </c>
+      <c r="I81">
+        <v>1115920.942282891</v>
+      </c>
+      <c r="J81">
+        <v>4841956.12021957</v>
+      </c>
+      <c r="K81">
+        <v>3987338.149276256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116415.877736783</v>
+      </c>
+      <c r="G82">
+        <v>4841449.893060546</v>
+      </c>
+      <c r="H82">
+        <v>3986114.179064288</v>
+      </c>
+      <c r="I82">
+        <v>1115976.683309922</v>
+      </c>
+      <c r="J82">
+        <v>4841907.468653572</v>
+      </c>
+      <c r="K82">
+        <v>3987248.080260365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116414.553525515</v>
+      </c>
+      <c r="G83">
+        <v>4841466.405862954</v>
+      </c>
+      <c r="H83">
+        <v>3986128.773002906</v>
+      </c>
+      <c r="I83">
+        <v>1116033.796908463</v>
+      </c>
+      <c r="J83">
+        <v>4841858.817087573</v>
+      </c>
+      <c r="K83">
+        <v>3987142.862612457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116413.320496542</v>
+      </c>
+      <c r="G84">
+        <v>4841482.918665361</v>
+      </c>
+      <c r="H84">
+        <v>3986142.689811547</v>
+      </c>
+      <c r="I84">
+        <v>1116092.316876825</v>
+      </c>
+      <c r="J84">
+        <v>4841810.165521574</v>
+      </c>
+      <c r="K84">
+        <v>3987022.496332534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116412.168650354</v>
+      </c>
+      <c r="G85">
+        <v>4841499.431467769</v>
+      </c>
+      <c r="H85">
+        <v>3986155.989548889</v>
+      </c>
+      <c r="I85">
+        <v>1116152.277845569</v>
+      </c>
+      <c r="J85">
+        <v>4841761.513955576</v>
+      </c>
+      <c r="K85">
+        <v>3986886.981420595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116411.089457407</v>
+      </c>
+      <c r="G86">
+        <v>4841515.944270175</v>
+      </c>
+      <c r="H86">
+        <v>3986168.724621333</v>
+      </c>
+      <c r="I86">
+        <v>1116213.715298007</v>
+      </c>
+      <c r="J86">
+        <v>4841712.862389578</v>
+      </c>
+      <c r="K86">
+        <v>3986736.31787664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116410.075591617</v>
+      </c>
+      <c r="G87">
+        <v>4841532.457072582</v>
+      </c>
+      <c r="H87">
+        <v>3986180.941030212</v>
+      </c>
+      <c r="I87">
+        <v>1116276.665591189</v>
+      </c>
+      <c r="J87">
+        <v>4841664.210823581</v>
+      </c>
+      <c r="K87">
+        <v>3986570.505700669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116409.120720597</v>
+      </c>
+      <c r="G88">
+        <v>4841548.969874989</v>
+      </c>
+      <c r="H88">
+        <v>3986192.679374829</v>
+      </c>
+      <c r="I88">
+        <v>1116341.165977427</v>
+      </c>
+      <c r="J88">
+        <v>4841615.559257581</v>
+      </c>
+      <c r="K88">
+        <v>3986389.544892683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116408.219338898</v>
+      </c>
+      <c r="G89">
+        <v>4841565.482677396</v>
+      </c>
+      <c r="H89">
+        <v>3986203.975666516</v>
+      </c>
+      <c r="I89">
+        <v>1116407.254626337</v>
+      </c>
+      <c r="J89">
+        <v>4841566.907691583</v>
+      </c>
+      <c r="K89">
+        <v>3986193.435452682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116407.366634214</v>
+      </c>
+      <c r="G90">
+        <v>4841581.995479804</v>
+      </c>
+      <c r="H90">
+        <v>3986214.861994904</v>
+      </c>
+      <c r="I90">
+        <v>1116474.970647426</v>
+      </c>
+      <c r="J90">
+        <v>4841518.256125585</v>
+      </c>
+      <c r="K90">
+        <v>3985982.177380664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116406.55837911</v>
+      </c>
+      <c r="G91">
+        <v>4841598.508282211</v>
+      </c>
+      <c r="H91">
+        <v>3986225.367077474</v>
+      </c>
+      <c r="I91">
+        <v>1116544.354113237</v>
+      </c>
+      <c r="J91">
+        <v>4841469.604559587</v>
+      </c>
+      <c r="K91">
+        <v>3985755.770676631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116405.790842728</v>
+      </c>
+      <c r="G92">
+        <v>4841615.021084618</v>
+      </c>
+      <c r="H92">
+        <v>3986235.516716097</v>
+      </c>
+      <c r="I92">
+        <v>1116615.446083062</v>
+      </c>
+      <c r="J92">
+        <v>4841420.952993589</v>
+      </c>
+      <c r="K92">
+        <v>3985514.215340582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116405.060718246</v>
+      </c>
+      <c r="G93">
+        <v>4841631.533887026</v>
+      </c>
+      <c r="H93">
+        <v>3986245.334178827</v>
+      </c>
+      <c r="I93">
+        <v>1116688.288627241</v>
+      </c>
+      <c r="J93">
+        <v>4841372.30142759</v>
+      </c>
+      <c r="K93">
+        <v>3985257.511372518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116404.365062883</v>
+      </c>
+      <c r="G94">
+        <v>4841648.046689432</v>
+      </c>
+      <c r="H94">
+        <v>3986254.840521191</v>
+      </c>
+      <c r="I94">
+        <v>1116762.924852055</v>
+      </c>
+      <c r="J94">
+        <v>4841323.649861592</v>
+      </c>
+      <c r="K94">
+        <v>3984985.658772437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116403.701247956</v>
+      </c>
+      <c r="G95">
+        <v>4841664.559491839</v>
+      </c>
+      <c r="H95">
+        <v>3986264.054858103</v>
+      </c>
+      <c r="I95">
+        <v>1116839.398925242</v>
+      </c>
+      <c r="J95">
+        <v>4841274.998295594</v>
+      </c>
+      <c r="K95">
+        <v>3984698.657540341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116403.066917058</v>
+      </c>
+      <c r="G96">
+        <v>4841681.072294247</v>
+      </c>
+      <c r="H96">
+        <v>3986272.994595249</v>
+      </c>
+      <c r="I96">
+        <v>1116917.756102127</v>
+      </c>
+      <c r="J96">
+        <v>4841226.346729595</v>
+      </c>
+      <c r="K96">
+        <v>3984396.50767623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116402.459950855</v>
+      </c>
+      <c r="G97">
+        <v>4841697.585096654</v>
+      </c>
+      <c r="H97">
+        <v>3986281.675626991</v>
+      </c>
+      <c r="I97">
+        <v>1116998.042752404</v>
+      </c>
+      <c r="J97">
+        <v>4841177.695163597</v>
+      </c>
+      <c r="K97">
+        <v>3984079.209180102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116401.878437281</v>
+      </c>
+      <c r="G98">
+        <v>4841714.097899062</v>
+      </c>
+      <c r="H98">
+        <v>3986290.112506423</v>
+      </c>
+      <c r="I98">
+        <v>1117080.306387583</v>
+      </c>
+      <c r="J98">
+        <v>4841129.043597599</v>
+      </c>
+      <c r="K98">
+        <v>3983746.76205196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116401.320646187</v>
+      </c>
+      <c r="G99">
+        <v>4841730.610701468</v>
+      </c>
+      <c r="H99">
+        <v>3986298.318592164</v>
+      </c>
+      <c r="I99">
+        <v>1117164.595689097</v>
+      </c>
+      <c r="J99">
+        <v>4841080.3920316</v>
+      </c>
+      <c r="K99">
+        <v>3983399.1662918</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116400.785007686</v>
+      </c>
+      <c r="G100">
+        <v>4841747.123503875</v>
+      </c>
+      <c r="H100">
+        <v>3986306.306175604</v>
+      </c>
+      <c r="I100">
+        <v>1117250.960537115</v>
+      </c>
+      <c r="J100">
+        <v>4841031.740465602</v>
+      </c>
+      <c r="K100">
+        <v>3983036.421899626</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116400.270093558</v>
+      </c>
+      <c r="G101">
+        <v>4841763.636306283</v>
+      </c>
+      <c r="H101">
+        <v>3986314.086591641</v>
+      </c>
+      <c r="I101">
+        <v>1117339.452040062</v>
+      </c>
+      <c r="J101">
+        <v>4840983.088899604</v>
+      </c>
+      <c r="K101">
+        <v>3982658.528875436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116399.774601235</v>
+      </c>
+      <c r="G102">
+        <v>4841780.149108689</v>
+      </c>
+      <c r="H102">
+        <v>3986321.670315426</v>
+      </c>
+      <c r="I102">
+        <v>1117430.122564859</v>
+      </c>
+      <c r="J102">
+        <v>4840934.437333606</v>
+      </c>
+      <c r="K102">
+        <v>3982265.48721923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116399.297339931</v>
+      </c>
+      <c r="G103">
+        <v>4841796.661911097</v>
+      </c>
+      <c r="H103">
+        <v>3986329.067047167</v>
+      </c>
+      <c r="I103">
+        <v>1117523.025767912</v>
+      </c>
+      <c r="J103">
+        <v>4840885.785767606</v>
+      </c>
+      <c r="K103">
+        <v>3981857.296931008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116398.837218613</v>
+      </c>
+      <c r="G104">
+        <v>4841813.174713505</v>
+      </c>
+      <c r="H104">
+        <v>3986336.285786731</v>
+      </c>
+      <c r="I104">
+        <v>1117618.216626872</v>
+      </c>
+      <c r="J104">
+        <v>4840837.134201609</v>
+      </c>
+      <c r="K104">
+        <v>3981433.958010771</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116398.393235506</v>
+      </c>
+      <c r="G105">
+        <v>4841829.687515911</v>
+      </c>
+      <c r="H105">
+        <v>3986343.334899485</v>
+      </c>
+      <c r="I105">
+        <v>1117715.75147316</v>
+      </c>
+      <c r="J105">
+        <v>4840788.482635611</v>
+      </c>
+      <c r="K105">
+        <v>3980995.470458518</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116397.964468921</v>
+      </c>
+      <c r="G106">
+        <v>4841846.200318319</v>
+      </c>
+      <c r="H106">
+        <v>3986350.222174572</v>
+      </c>
+      <c r="I106">
+        <v>1117815.688025307</v>
+      </c>
+      <c r="J106">
+        <v>4840739.831069613</v>
+      </c>
+      <c r="K106">
+        <v>3980541.83427425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116397.550069207</v>
+      </c>
+      <c r="G107">
+        <v>4841862.713120726</v>
+      </c>
+      <c r="H107">
+        <v>3986356.954876647</v>
+      </c>
+      <c r="I107">
+        <v>1117918.085423111</v>
+      </c>
+      <c r="J107">
+        <v>4840691.179503614</v>
+      </c>
+      <c r="K107">
+        <v>3980073.049457965</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>98</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G108">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H108">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I108">
+        <v>1114861.045508332</v>
+      </c>
+      <c r="J108">
+        <v>4843223.748321293</v>
+      </c>
+      <c r="K108">
+        <v>3984374.218629163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G109">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H109">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I109">
+        <v>1114890.65949651</v>
+      </c>
+      <c r="J109">
+        <v>4843175.0967283</v>
+      </c>
+      <c r="K109">
+        <v>3984678.014918308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G110">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H110">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I110">
+        <v>1114921.002701903</v>
+      </c>
+      <c r="J110">
+        <v>4843126.445135305</v>
+      </c>
+      <c r="K110">
+        <v>3984966.662531925</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>98</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G111">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H111">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I111">
+        <v>1114952.093080814</v>
+      </c>
+      <c r="J111">
+        <v>4843077.793542312</v>
+      </c>
+      <c r="K111">
+        <v>3985240.161470012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G112">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H112">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I112">
+        <v>1114983.949031702</v>
+      </c>
+      <c r="J112">
+        <v>4843029.141949317</v>
+      </c>
+      <c r="K112">
+        <v>3985498.511732571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>98</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G113">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H113">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I113">
+        <v>1115016.589406075</v>
+      </c>
+      <c r="J113">
+        <v>4842980.490356324</v>
+      </c>
+      <c r="K113">
+        <v>3985741.713319601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>98</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G114">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H114">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I114">
+        <v>1115050.033519637</v>
+      </c>
+      <c r="J114">
+        <v>4842931.838763329</v>
+      </c>
+      <c r="K114">
+        <v>3985969.766231101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G115">
+        <v>4841125.219587924</v>
+      </c>
+      <c r="H115">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I115">
+        <v>1115084.301163728</v>
+      </c>
+      <c r="J115">
+        <v>4842883.187170336</v>
+      </c>
+      <c r="K115">
+        <v>3986182.670467073</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>98</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.702774489</v>
+      </c>
+      <c r="G116">
+        <v>4841141.732409373</v>
+      </c>
+      <c r="H116">
+        <v>3985231.903229237</v>
+      </c>
+      <c r="I116">
+        <v>1115119.412617029</v>
+      </c>
+      <c r="J116">
+        <v>4842834.535577342</v>
+      </c>
+      <c r="K116">
+        <v>3986380.426027515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>98</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116530.022202046</v>
+      </c>
+      <c r="G117">
+        <v>4841158.245230821</v>
+      </c>
+      <c r="H117">
+        <v>3985431.157814749</v>
+      </c>
+      <c r="I117">
+        <v>1115155.388657566</v>
+      </c>
+      <c r="J117">
+        <v>4842785.883984349</v>
+      </c>
+      <c r="K117">
+        <v>3986563.032912428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>98</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.424807817</v>
+      </c>
+      <c r="G118">
+        <v>4841174.758052271</v>
+      </c>
+      <c r="H118">
+        <v>3985549.844036146</v>
+      </c>
+      <c r="I118">
+        <v>1115192.250575003</v>
+      </c>
+      <c r="J118">
+        <v>4842737.232391354</v>
+      </c>
+      <c r="K118">
+        <v>3986730.491121813</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>98</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.372034569</v>
+      </c>
+      <c r="G119">
+        <v>4841191.27087372</v>
+      </c>
+      <c r="H119">
+        <v>3985634.661056884</v>
+      </c>
+      <c r="I119">
+        <v>1115230.020183246</v>
+      </c>
+      <c r="J119">
+        <v>4842688.580798361</v>
+      </c>
+      <c r="K119">
+        <v>3986882.800655669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.782103787</v>
+      </c>
+      <c r="G120">
+        <v>4841207.783695169</v>
+      </c>
+      <c r="H120">
+        <v>3985700.708025491</v>
+      </c>
+      <c r="I120">
+        <v>1115268.719833343</v>
+      </c>
+      <c r="J120">
+        <v>4842639.929205366</v>
+      </c>
+      <c r="K120">
+        <v>3987019.961513995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>98</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.389638397</v>
+      </c>
+      <c r="G121">
+        <v>4841224.296516618</v>
+      </c>
+      <c r="H121">
+        <v>3985754.805615851</v>
+      </c>
+      <c r="I121">
+        <v>1115308.372426721</v>
+      </c>
+      <c r="J121">
+        <v>4842591.277612373</v>
+      </c>
+      <c r="K121">
+        <v>3987141.973696793</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116454.046042082</v>
+      </c>
+      <c r="G122">
+        <v>4841240.809338067</v>
+      </c>
+      <c r="H122">
+        <v>3985800.622325953</v>
+      </c>
+      <c r="I122">
+        <v>1115349.001428732</v>
+      </c>
+      <c r="J122">
+        <v>4842542.626019378</v>
+      </c>
+      <c r="K122">
+        <v>3987248.837204061</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>98</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116448.104537958</v>
+      </c>
+      <c r="G123">
+        <v>4841257.322159516</v>
+      </c>
+      <c r="H123">
+        <v>3985840.3599775</v>
+      </c>
+      <c r="I123">
+        <v>1115390.630882539</v>
+      </c>
+      <c r="J123">
+        <v>4842493.974426385</v>
+      </c>
+      <c r="K123">
+        <v>3987340.552035801</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>98</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116443.170972458</v>
+      </c>
+      <c r="G124">
+        <v>4841273.834980966</v>
+      </c>
+      <c r="H124">
+        <v>3985875.444391627</v>
+      </c>
+      <c r="I124">
+        <v>1115433.285423347</v>
+      </c>
+      <c r="J124">
+        <v>4842445.322833392</v>
+      </c>
+      <c r="K124">
+        <v>3987417.118192011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>98</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.990146902</v>
+      </c>
+      <c r="G125">
+        <v>4841290.347802414</v>
+      </c>
+      <c r="H125">
+        <v>3985906.85200227</v>
+      </c>
+      <c r="I125">
+        <v>1115476.990292982</v>
+      </c>
+      <c r="J125">
+        <v>4842396.671240398</v>
+      </c>
+      <c r="K125">
+        <v>3987478.535672693</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>98</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.388773568</v>
+      </c>
+      <c r="G126">
+        <v>4841306.860623863</v>
+      </c>
+      <c r="H126">
+        <v>3985935.280878136</v>
+      </c>
+      <c r="I126">
+        <v>1115521.771354824</v>
+      </c>
+      <c r="J126">
+        <v>4842348.019647404</v>
+      </c>
+      <c r="K126">
+        <v>3987524.804477846</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>98</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116432.244588559</v>
+      </c>
+      <c r="G127">
+        <v>4841323.373445312</v>
+      </c>
+      <c r="H127">
+        <v>3985961.247410171</v>
+      </c>
+      <c r="I127">
+        <v>1115567.655109115</v>
+      </c>
+      <c r="J127">
+        <v>4842299.36805441</v>
+      </c>
+      <c r="K127">
+        <v>3987555.92460747</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>98</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.468570367</v>
+      </c>
+      <c r="G128">
+        <v>4841339.886266761</v>
+      </c>
+      <c r="H128">
+        <v>3985985.144353492</v>
+      </c>
+      <c r="I128">
+        <v>1115614.668708644</v>
+      </c>
+      <c r="J128">
+        <v>4842250.716461416</v>
+      </c>
+      <c r="K128">
+        <v>3987571.896061564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.994175091</v>
+      </c>
+      <c r="G129">
+        <v>4841356.39908821</v>
+      </c>
+      <c r="H129">
+        <v>3986007.277395174</v>
+      </c>
+      <c r="I129">
+        <v>1115662.83997481</v>
+      </c>
+      <c r="J129">
+        <v>4842202.064868422</v>
+      </c>
+      <c r="K129">
+        <v>3987572.71884013</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.770540157</v>
+      </c>
+      <c r="G130">
+        <v>4841372.911909659</v>
+      </c>
+      <c r="H130">
+        <v>3986027.889128375</v>
+      </c>
+      <c r="I130">
+        <v>1115712.197414087</v>
+      </c>
+      <c r="J130">
+        <v>4842153.413275428</v>
+      </c>
+      <c r="K130">
+        <v>3987558.392943166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>98</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.758038393</v>
+      </c>
+      <c r="G131">
+        <v>4841389.424731108</v>
+      </c>
+      <c r="H131">
+        <v>3986047.175303683</v>
+      </c>
+      <c r="I131">
+        <v>1115762.7702349</v>
+      </c>
+      <c r="J131">
+        <v>4842104.761682434</v>
+      </c>
+      <c r="K131">
+        <v>3987528.918370674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>98</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.925279759</v>
+      </c>
+      <c r="G132">
+        <v>4841405.937552557</v>
+      </c>
+      <c r="H132">
+        <v>3986065.296163115</v>
+      </c>
+      <c r="I132">
+        <v>1115814.588364898</v>
+      </c>
+      <c r="J132">
+        <v>4842056.110089441</v>
+      </c>
+      <c r="K132">
+        <v>3987484.295122653</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>98</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116419.247035336</v>
+      </c>
+      <c r="G133">
+        <v>4841422.450374005</v>
+      </c>
+      <c r="H133">
+        <v>3986082.384540821</v>
+      </c>
+      <c r="I133">
+        <v>1115867.682468676</v>
+      </c>
+      <c r="J133">
+        <v>4842007.458496446</v>
+      </c>
+      <c r="K133">
+        <v>3987424.523199102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>98</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.70276635</v>
+      </c>
+      <c r="G134">
+        <v>4841438.963195455</v>
+      </c>
+      <c r="H134">
+        <v>3986098.551777845</v>
+      </c>
+      <c r="I134">
+        <v>1115922.083965914</v>
+      </c>
+      <c r="J134">
+        <v>4841958.806903453</v>
+      </c>
+      <c r="K134">
+        <v>3987349.602600023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>98</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116416.275560496</v>
+      </c>
+      <c r="G135">
+        <v>4841455.476016904</v>
+      </c>
+      <c r="H135">
+        <v>3986113.892122684</v>
+      </c>
+      <c r="I135">
+        <v>1115977.825049973</v>
+      </c>
+      <c r="J135">
+        <v>4841910.155310459</v>
+      </c>
+      <c r="K135">
+        <v>3987259.533325416</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>98</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.951348756</v>
+      </c>
+      <c r="G136">
+        <v>4841471.988838353</v>
+      </c>
+      <c r="H136">
+        <v>3986128.486060251</v>
+      </c>
+      <c r="I136">
+        <v>1116034.938706946</v>
+      </c>
+      <c r="J136">
+        <v>4841861.503717465</v>
+      </c>
+      <c r="K136">
+        <v>3987154.315375278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>98</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.718319343</v>
+      </c>
+      <c r="G137">
+        <v>4841488.501659802</v>
+      </c>
+      <c r="H137">
+        <v>3986142.40286789</v>
+      </c>
+      <c r="I137">
+        <v>1116093.458735178</v>
+      </c>
+      <c r="J137">
+        <v>4841812.85212447</v>
+      </c>
+      <c r="K137">
+        <v>3987033.948749612</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>98</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.566472745</v>
+      </c>
+      <c r="G138">
+        <v>4841505.014481252</v>
+      </c>
+      <c r="H138">
+        <v>3986155.702604275</v>
+      </c>
+      <c r="I138">
+        <v>1116153.419765268</v>
+      </c>
+      <c r="J138">
+        <v>4841764.200531477</v>
+      </c>
+      <c r="K138">
+        <v>3986898.433448417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>98</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.487279413</v>
+      </c>
+      <c r="G139">
+        <v>4841521.5273027</v>
+      </c>
+      <c r="H139">
+        <v>3986168.437675802</v>
+      </c>
+      <c r="I139">
+        <v>1116214.857280561</v>
+      </c>
+      <c r="J139">
+        <v>4841715.548938483</v>
+      </c>
+      <c r="K139">
+        <v>3986747.769471692</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>98</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.473413262</v>
+      </c>
+      <c r="G140">
+        <v>4841538.04012415</v>
+      </c>
+      <c r="H140">
+        <v>3986180.654083802</v>
+      </c>
+      <c r="I140">
+        <v>1116277.807638147</v>
+      </c>
+      <c r="J140">
+        <v>4841666.89734549</v>
+      </c>
+      <c r="K140">
+        <v>3986581.956819439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>98</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.518541901</v>
+      </c>
+      <c r="G141">
+        <v>4841554.552945598</v>
+      </c>
+      <c r="H141">
+        <v>3986192.392427574</v>
+      </c>
+      <c r="I141">
+        <v>1116342.308090375</v>
+      </c>
+      <c r="J141">
+        <v>4841618.245752495</v>
+      </c>
+      <c r="K141">
+        <v>3986400.995491657</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>98</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.617159882</v>
+      </c>
+      <c r="G142">
+        <v>4841571.065767047</v>
+      </c>
+      <c r="H142">
+        <v>3986203.688718448</v>
+      </c>
+      <c r="I142">
+        <v>1116408.396806899</v>
+      </c>
+      <c r="J142">
+        <v>4841569.594159502</v>
+      </c>
+      <c r="K142">
+        <v>3986204.885488346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>98</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.764454894</v>
+      </c>
+      <c r="G143">
+        <v>4841587.578588497</v>
+      </c>
+      <c r="H143">
+        <v>3986214.575046052</v>
+      </c>
+      <c r="I143">
+        <v>1116476.112897268</v>
+      </c>
+      <c r="J143">
+        <v>4841520.942566507</v>
+      </c>
+      <c r="K143">
+        <v>3985993.626809506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>98</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.956199502</v>
+      </c>
+      <c r="G144">
+        <v>4841604.091409945</v>
+      </c>
+      <c r="H144">
+        <v>3986225.080127866</v>
+      </c>
+      <c r="I144">
+        <v>1116545.496434064</v>
+      </c>
+      <c r="J144">
+        <v>4841472.290973514</v>
+      </c>
+      <c r="K144">
+        <v>3985767.219455137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>98</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116406.188662846</v>
+      </c>
+      <c r="G145">
+        <v>4841620.604231395</v>
+      </c>
+      <c r="H145">
+        <v>3986235.229765758</v>
+      </c>
+      <c r="I145">
+        <v>1116616.588476622</v>
+      </c>
+      <c r="J145">
+        <v>4841423.639380519</v>
+      </c>
+      <c r="K145">
+        <v>3985525.663425238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>98</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.458538104</v>
+      </c>
+      <c r="G146">
+        <v>4841637.117052844</v>
+      </c>
+      <c r="H146">
+        <v>3986245.047227782</v>
+      </c>
+      <c r="I146">
+        <v>1116689.431095325</v>
+      </c>
+      <c r="J146">
+        <v>4841374.987787526</v>
+      </c>
+      <c r="K146">
+        <v>3985268.958719812</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>98</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.762882493</v>
+      </c>
+      <c r="G147">
+        <v>4841653.629874293</v>
+      </c>
+      <c r="H147">
+        <v>3986254.553569462</v>
+      </c>
+      <c r="I147">
+        <v>1116764.067396499</v>
+      </c>
+      <c r="J147">
+        <v>4841326.336194533</v>
+      </c>
+      <c r="K147">
+        <v>3984997.105338856</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>98</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116404.099067329</v>
+      </c>
+      <c r="G148">
+        <v>4841670.142695742</v>
+      </c>
+      <c r="H148">
+        <v>3986263.76790571</v>
+      </c>
+      <c r="I148">
+        <v>1116840.541547925</v>
+      </c>
+      <c r="J148">
+        <v>4841277.684601539</v>
+      </c>
+      <c r="K148">
+        <v>3984710.10328237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>98</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.464736206</v>
+      </c>
+      <c r="G149">
+        <v>4841686.655517191</v>
+      </c>
+      <c r="H149">
+        <v>3986272.707642213</v>
+      </c>
+      <c r="I149">
+        <v>1116918.898804976</v>
+      </c>
+      <c r="J149">
+        <v>4841229.033008545</v>
+      </c>
+      <c r="K149">
+        <v>3984407.952550357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>98</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.857769787</v>
+      </c>
+      <c r="G150">
+        <v>4841703.16833864</v>
+      </c>
+      <c r="H150">
+        <v>3986281.38867333</v>
+      </c>
+      <c r="I150">
+        <v>1116999.185537394</v>
+      </c>
+      <c r="J150">
+        <v>4841180.381415551</v>
+      </c>
+      <c r="K150">
+        <v>3984090.653142814</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>98</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116402.276256005</v>
+      </c>
+      <c r="G151">
+        <v>4841719.681160089</v>
+      </c>
+      <c r="H151">
+        <v>3986289.825552154</v>
+      </c>
+      <c r="I151">
+        <v>1117081.449256735</v>
+      </c>
+      <c r="J151">
+        <v>4841131.729822557</v>
+      </c>
+      <c r="K151">
+        <v>3983758.205059742</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>98</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.718464712</v>
+      </c>
+      <c r="G152">
+        <v>4841736.193981538</v>
+      </c>
+      <c r="H152">
+        <v>3986298.031637304</v>
+      </c>
+      <c r="I152">
+        <v>1117165.738644484</v>
+      </c>
+      <c r="J152">
+        <v>4841083.078229562</v>
+      </c>
+      <c r="K152">
+        <v>3983410.60830114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>98</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116401.18282602</v>
+      </c>
+      <c r="G153">
+        <v>4841752.706802987</v>
+      </c>
+      <c r="H153">
+        <v>3986306.019220169</v>
+      </c>
+      <c r="I153">
+        <v>1117252.103580861</v>
+      </c>
+      <c r="J153">
+        <v>4841034.426636569</v>
+      </c>
+      <c r="K153">
+        <v>3983047.862867011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>98</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.667911709</v>
+      </c>
+      <c r="G154">
+        <v>4841769.219624436</v>
+      </c>
+      <c r="H154">
+        <v>3986313.799635646</v>
+      </c>
+      <c r="I154">
+        <v>1117340.595174342</v>
+      </c>
+      <c r="J154">
+        <v>4840985.775043575</v>
+      </c>
+      <c r="K154">
+        <v>3982669.968757351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>98</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116400.172419209</v>
+      </c>
+      <c r="G155">
+        <v>4841785.732445884</v>
+      </c>
+      <c r="H155">
+        <v>3986321.383358886</v>
+      </c>
+      <c r="I155">
+        <v>1117431.265791902</v>
+      </c>
+      <c r="J155">
+        <v>4840937.123450582</v>
+      </c>
+      <c r="K155">
+        <v>3982276.925972164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>98</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.695157735</v>
+      </c>
+      <c r="G156">
+        <v>4841802.245267334</v>
+      </c>
+      <c r="H156">
+        <v>3986328.780090094</v>
+      </c>
+      <c r="I156">
+        <v>1117524.169090004</v>
+      </c>
+      <c r="J156">
+        <v>4840888.471857587</v>
+      </c>
+      <c r="K156">
+        <v>3981868.734511447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>98</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116399.235036254</v>
+      </c>
+      <c r="G157">
+        <v>4841818.758088783</v>
+      </c>
+      <c r="H157">
+        <v>3986335.998829138</v>
+      </c>
+      <c r="I157">
+        <v>1117619.360046353</v>
+      </c>
+      <c r="J157">
+        <v>4840839.820264594</v>
+      </c>
+      <c r="K157">
+        <v>3981445.394375201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>98</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.791052988</v>
+      </c>
+      <c r="G158">
+        <v>4841835.270910231</v>
+      </c>
+      <c r="H158">
+        <v>3986343.047941385</v>
+      </c>
+      <c r="I158">
+        <v>1117716.894992427</v>
+      </c>
+      <c r="J158">
+        <v>4840791.1686716</v>
+      </c>
+      <c r="K158">
+        <v>3981006.905563426</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>98</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116398.36228625</v>
+      </c>
+      <c r="G159">
+        <v>4841851.783731681</v>
+      </c>
+      <c r="H159">
+        <v>3986349.935215977</v>
+      </c>
+      <c r="I159">
+        <v>1117816.831646818</v>
+      </c>
+      <c r="J159">
+        <v>4840742.517078606</v>
+      </c>
+      <c r="K159">
+        <v>3980553.268076122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>98</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.947886389</v>
+      </c>
+      <c r="G160">
+        <v>4841868.29655313</v>
+      </c>
+      <c r="H160">
+        <v>3986356.667917566</v>
+      </c>
+      <c r="I160">
+        <v>1117919.229149383</v>
+      </c>
+      <c r="J160">
+        <v>4840693.865485611</v>
+      </c>
+      <c r="K160">
+        <v>3980084.481913289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>98</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G161">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H161">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I161">
+        <v>1114862.050755686</v>
+      </c>
+      <c r="J161">
+        <v>4843227.373125011</v>
+      </c>
+      <c r="K161">
+        <v>3984369.802396761</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>98</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G162">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H162">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I162">
+        <v>1114891.664770567</v>
+      </c>
+      <c r="J162">
+        <v>4843178.721495605</v>
+      </c>
+      <c r="K162">
+        <v>3984673.598349182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>98</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G163">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H163">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I163">
+        <v>1114922.00800332</v>
+      </c>
+      <c r="J163">
+        <v>4843130.069866198</v>
+      </c>
+      <c r="K163">
+        <v>3984962.245642866</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>98</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G164">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H164">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I164">
+        <v>1114953.098410264</v>
+      </c>
+      <c r="J164">
+        <v>4843081.418236792</v>
+      </c>
+      <c r="K164">
+        <v>3985235.74427781</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>98</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G165">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H165">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I165">
+        <v>1114984.954389876</v>
+      </c>
+      <c r="J165">
+        <v>4843032.766607386</v>
+      </c>
+      <c r="K165">
+        <v>3985494.094254016</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>98</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G166">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H166">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I166">
+        <v>1115017.594793679</v>
+      </c>
+      <c r="J166">
+        <v>4842984.114977981</v>
+      </c>
+      <c r="K166">
+        <v>3985737.295571484</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>98</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G167">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H167">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I167">
+        <v>1115051.038937398</v>
+      </c>
+      <c r="J167">
+        <v>4842935.463348574</v>
+      </c>
+      <c r="K167">
+        <v>3985965.348230213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>98</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G168">
+        <v>4841123.3851559</v>
+      </c>
+      <c r="H168">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I168">
+        <v>1115085.306612387</v>
+      </c>
+      <c r="J168">
+        <v>4842886.811719168</v>
+      </c>
+      <c r="K168">
+        <v>3986178.252230204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>98</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.045651315</v>
+      </c>
+      <c r="G169">
+        <v>4841139.897971093</v>
+      </c>
+      <c r="H169">
+        <v>3985224.788718166</v>
+      </c>
+      <c r="I169">
+        <v>1115120.418097347</v>
+      </c>
+      <c r="J169">
+        <v>4842838.160089762</v>
+      </c>
+      <c r="K169">
+        <v>3986376.007571457</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>98</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.365063924</v>
+      </c>
+      <c r="G170">
+        <v>4841156.410786283</v>
+      </c>
+      <c r="H170">
+        <v>3985424.042947966</v>
+      </c>
+      <c r="I170">
+        <v>1115156.394170323</v>
+      </c>
+      <c r="J170">
+        <v>4842789.508460357</v>
+      </c>
+      <c r="K170">
+        <v>3986558.614253971</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>98</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116501.767660914</v>
+      </c>
+      <c r="G171">
+        <v>4841172.923601476</v>
+      </c>
+      <c r="H171">
+        <v>3985542.728957482</v>
+      </c>
+      <c r="I171">
+        <v>1115193.256120998</v>
+      </c>
+      <c r="J171">
+        <v>4842740.85683095</v>
+      </c>
+      <c r="K171">
+        <v>3986726.072277747</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>98</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.714882122</v>
+      </c>
+      <c r="G172">
+        <v>4841189.436416668</v>
+      </c>
+      <c r="H172">
+        <v>3985627.545826802</v>
+      </c>
+      <c r="I172">
+        <v>1115231.025763297</v>
+      </c>
+      <c r="J172">
+        <v>4842692.205201544</v>
+      </c>
+      <c r="K172">
+        <v>3986878.381642784</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>98</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.124947473</v>
+      </c>
+      <c r="G173">
+        <v>4841205.949231859</v>
+      </c>
+      <c r="H173">
+        <v>3985693.592677501</v>
+      </c>
+      <c r="I173">
+        <v>1115269.725448289</v>
+      </c>
+      <c r="J173">
+        <v>4842643.553572138</v>
+      </c>
+      <c r="K173">
+        <v>3987015.542349084</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>98</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.732479199</v>
+      </c>
+      <c r="G174">
+        <v>4841222.462047052</v>
+      </c>
+      <c r="H174">
+        <v>3985747.690171286</v>
+      </c>
+      <c r="I174">
+        <v>1115309.378077421</v>
+      </c>
+      <c r="J174">
+        <v>4842594.901942732</v>
+      </c>
+      <c r="K174">
+        <v>3987137.554396645</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>98</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.388880629</v>
+      </c>
+      <c r="G175">
+        <v>4841238.974862243</v>
+      </c>
+      <c r="H175">
+        <v>3985793.506799594</v>
+      </c>
+      <c r="I175">
+        <v>1115350.007116066</v>
+      </c>
+      <c r="J175">
+        <v>4842546.250313326</v>
+      </c>
+      <c r="K175">
+        <v>3987244.417785467</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>98</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.44737468</v>
+      </c>
+      <c r="G176">
+        <v>4841255.487677435</v>
+      </c>
+      <c r="H176">
+        <v>3985833.244380201</v>
+      </c>
+      <c r="I176">
+        <v>1115391.636607409</v>
+      </c>
+      <c r="J176">
+        <v>4842497.59868392</v>
+      </c>
+      <c r="K176">
+        <v>3987336.132515551</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>98</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.513807666</v>
+      </c>
+      <c r="G177">
+        <v>4841272.000492628</v>
+      </c>
+      <c r="H177">
+        <v>3985868.328731695</v>
+      </c>
+      <c r="I177">
+        <v>1115434.291186678</v>
+      </c>
+      <c r="J177">
+        <v>4842448.947054514</v>
+      </c>
+      <c r="K177">
+        <v>3987412.698586897</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>98</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.332980826</v>
+      </c>
+      <c r="G178">
+        <v>4841288.513307818</v>
+      </c>
+      <c r="H178">
+        <v>3985899.736286268</v>
+      </c>
+      <c r="I178">
+        <v>1115477.996095721</v>
+      </c>
+      <c r="J178">
+        <v>4842400.295425108</v>
+      </c>
+      <c r="K178">
+        <v>3987474.115999504</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>98</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.731606386</v>
+      </c>
+      <c r="G179">
+        <v>4841305.026123011</v>
+      </c>
+      <c r="H179">
+        <v>3985928.165111383</v>
+      </c>
+      <c r="I179">
+        <v>1115522.777197941</v>
+      </c>
+      <c r="J179">
+        <v>4842351.643795701</v>
+      </c>
+      <c r="K179">
+        <v>3987520.384753373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>98</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.587420411</v>
+      </c>
+      <c r="G180">
+        <v>4841321.538938203</v>
+      </c>
+      <c r="H180">
+        <v>3985954.131597062</v>
+      </c>
+      <c r="I180">
+        <v>1115568.660993605</v>
+      </c>
+      <c r="J180">
+        <v>4842302.992166296</v>
+      </c>
+      <c r="K180">
+        <v>3987551.504848503</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>98</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116429.811401366</v>
+      </c>
+      <c r="G181">
+        <v>4841338.051753394</v>
+      </c>
+      <c r="H181">
+        <v>3985978.028497722</v>
+      </c>
+      <c r="I181">
+        <v>1115615.674635525</v>
+      </c>
+      <c r="J181">
+        <v>4842254.34053689</v>
+      </c>
+      <c r="K181">
+        <v>3987567.476284895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>98</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.337005331</v>
+      </c>
+      <c r="G182">
+        <v>4841354.564568587</v>
+      </c>
+      <c r="H182">
+        <v>3986000.161499891</v>
+      </c>
+      <c r="I182">
+        <v>1115663.845945125</v>
+      </c>
+      <c r="J182">
+        <v>4842205.688907484</v>
+      </c>
+      <c r="K182">
+        <v>3987568.299062549</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>98</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.113369714</v>
+      </c>
+      <c r="G183">
+        <v>4841371.077383779</v>
+      </c>
+      <c r="H183">
+        <v>3986020.773196296</v>
+      </c>
+      <c r="I183">
+        <v>1115713.203428908</v>
+      </c>
+      <c r="J183">
+        <v>4842157.037278077</v>
+      </c>
+      <c r="K183">
+        <v>3987553.973181464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>98</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.100867332</v>
+      </c>
+      <c r="G184">
+        <v>4841387.59019897</v>
+      </c>
+      <c r="H184">
+        <v>3986040.059337173</v>
+      </c>
+      <c r="I184">
+        <v>1115763.776295321</v>
+      </c>
+      <c r="J184">
+        <v>4842108.385648671</v>
+      </c>
+      <c r="K184">
+        <v>3987524.498641641</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>98</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.268108136</v>
+      </c>
+      <c r="G185">
+        <v>4841404.103014163</v>
+      </c>
+      <c r="H185">
+        <v>3986058.180164256</v>
+      </c>
+      <c r="I185">
+        <v>1115815.594472042</v>
+      </c>
+      <c r="J185">
+        <v>4842059.734019266</v>
+      </c>
+      <c r="K185">
+        <v>3987479.87544308</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>98</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.589863197</v>
+      </c>
+      <c r="G186">
+        <v>4841420.615829353</v>
+      </c>
+      <c r="H186">
+        <v>3986075.268511456</v>
+      </c>
+      <c r="I186">
+        <v>1115868.688623694</v>
+      </c>
+      <c r="J186">
+        <v>4842011.082389859</v>
+      </c>
+      <c r="K186">
+        <v>3987420.10358578</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>98</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.045593736</v>
+      </c>
+      <c r="G187">
+        <v>4841437.128644546</v>
+      </c>
+      <c r="H187">
+        <v>3986091.435719618</v>
+      </c>
+      <c r="I187">
+        <v>1115923.090169985</v>
+      </c>
+      <c r="J187">
+        <v>4841962.430760453</v>
+      </c>
+      <c r="K187">
+        <v>3987345.183069742</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>98</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.618387445</v>
+      </c>
+      <c r="G188">
+        <v>4841453.641459738</v>
+      </c>
+      <c r="H188">
+        <v>3986106.77603707</v>
+      </c>
+      <c r="I188">
+        <v>1115978.831304304</v>
+      </c>
+      <c r="J188">
+        <v>4841913.779131046</v>
+      </c>
+      <c r="K188">
+        <v>3987255.113894965</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>98</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.294175298</v>
+      </c>
+      <c r="G189">
+        <v>4841470.154274929</v>
+      </c>
+      <c r="H189">
+        <v>3986121.369948585</v>
+      </c>
+      <c r="I189">
+        <v>1116035.945012775</v>
+      </c>
+      <c r="J189">
+        <v>4841865.12750164</v>
+      </c>
+      <c r="K189">
+        <v>3987149.896061451</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.061145506</v>
+      </c>
+      <c r="G190">
+        <v>4841486.667090122</v>
+      </c>
+      <c r="H190">
+        <v>3986135.286731379</v>
+      </c>
+      <c r="I190">
+        <v>1116094.465093774</v>
+      </c>
+      <c r="J190">
+        <v>4841816.475872234</v>
+      </c>
+      <c r="K190">
+        <v>3987029.529569197</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116412.909298555</v>
+      </c>
+      <c r="G191">
+        <v>4841503.179905314</v>
+      </c>
+      <c r="H191">
+        <v>3986148.586444021</v>
+      </c>
+      <c r="I191">
+        <v>1116154.42617793</v>
+      </c>
+      <c r="J191">
+        <v>4841767.824242828</v>
+      </c>
+      <c r="K191">
+        <v>3986894.014418206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116411.830104892</v>
+      </c>
+      <c r="G192">
+        <v>4841519.692720505</v>
+      </c>
+      <c r="H192">
+        <v>3986161.321492813</v>
+      </c>
+      <c r="I192">
+        <v>1116215.86374862</v>
+      </c>
+      <c r="J192">
+        <v>4841719.172613422</v>
+      </c>
+      <c r="K192">
+        <v>3986743.350608476</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116410.816238429</v>
+      </c>
+      <c r="G193">
+        <v>4841536.205535698</v>
+      </c>
+      <c r="H193">
+        <v>3986173.537879004</v>
+      </c>
+      <c r="I193">
+        <v>1116278.814162966</v>
+      </c>
+      <c r="J193">
+        <v>4841670.520984016</v>
+      </c>
+      <c r="K193">
+        <v>3986577.538140007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>98</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116409.861366775</v>
+      </c>
+      <c r="G194">
+        <v>4841552.718350888</v>
+      </c>
+      <c r="H194">
+        <v>3986185.27620182</v>
+      </c>
+      <c r="I194">
+        <v>1116343.314673353</v>
+      </c>
+      <c r="J194">
+        <v>4841621.86935461</v>
+      </c>
+      <c r="K194">
+        <v>3986396.5770128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>98</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116408.959984479</v>
+      </c>
+      <c r="G195">
+        <v>4841569.231166081</v>
+      </c>
+      <c r="H195">
+        <v>3986196.572472528</v>
+      </c>
+      <c r="I195">
+        <v>1116409.403449468</v>
+      </c>
+      <c r="J195">
+        <v>4841573.217725204</v>
+      </c>
+      <c r="K195">
+        <v>3986200.467226855</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>98</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.107279229</v>
+      </c>
+      <c r="G196">
+        <v>4841585.743981273</v>
+      </c>
+      <c r="H196">
+        <v>3986207.458780698</v>
+      </c>
+      <c r="I196">
+        <v>1116477.119600895</v>
+      </c>
+      <c r="J196">
+        <v>4841524.566095798</v>
+      </c>
+      <c r="K196">
+        <v>3985989.208782171</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>98</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.299023589</v>
+      </c>
+      <c r="G197">
+        <v>4841602.256796464</v>
+      </c>
+      <c r="H197">
+        <v>3986217.963843758</v>
+      </c>
+      <c r="I197">
+        <v>1116546.503200253</v>
+      </c>
+      <c r="J197">
+        <v>4841475.914466392</v>
+      </c>
+      <c r="K197">
+        <v>3985762.80167875</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>98</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.531486697</v>
+      </c>
+      <c r="G198">
+        <v>4841618.769611657</v>
+      </c>
+      <c r="H198">
+        <v>3986228.11346353</v>
+      </c>
+      <c r="I198">
+        <v>1116617.595306913</v>
+      </c>
+      <c r="J198">
+        <v>4841427.262836985</v>
+      </c>
+      <c r="K198">
+        <v>3985521.245916589</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>98</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116405.801361731</v>
+      </c>
+      <c r="G199">
+        <v>4841635.282426849</v>
+      </c>
+      <c r="H199">
+        <v>3986237.930908028</v>
+      </c>
+      <c r="I199">
+        <v>1116690.437991297</v>
+      </c>
+      <c r="J199">
+        <v>4841378.61120758</v>
+      </c>
+      <c r="K199">
+        <v>3985264.541495691</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>98</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.105705907</v>
+      </c>
+      <c r="G200">
+        <v>4841651.79524204</v>
+      </c>
+      <c r="H200">
+        <v>3986247.437232736</v>
+      </c>
+      <c r="I200">
+        <v>1116765.074359769</v>
+      </c>
+      <c r="J200">
+        <v>4841329.959578174</v>
+      </c>
+      <c r="K200">
+        <v>3984992.688416054</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>98</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.441890539</v>
+      </c>
+      <c r="G201">
+        <v>4841668.308057233</v>
+      </c>
+      <c r="H201">
+        <v>3986256.651552535</v>
+      </c>
+      <c r="I201">
+        <v>1116841.54858015</v>
+      </c>
+      <c r="J201">
+        <v>4841281.307948768</v>
+      </c>
+      <c r="K201">
+        <v>3984705.686677678</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>98</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116403.80755922</v>
+      </c>
+      <c r="G202">
+        <v>4841684.820872424</v>
+      </c>
+      <c r="H202">
+        <v>3986265.591273079</v>
+      </c>
+      <c r="I202">
+        <v>1116919.905907854</v>
+      </c>
+      <c r="J202">
+        <v>4841232.656319361</v>
+      </c>
+      <c r="K202">
+        <v>3984403.536280564</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>98</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.200592615</v>
+      </c>
+      <c r="G203">
+        <v>4841701.333687616</v>
+      </c>
+      <c r="H203">
+        <v>3986274.272288698</v>
+      </c>
+      <c r="I203">
+        <v>1117000.192712665</v>
+      </c>
+      <c r="J203">
+        <v>4841184.004689955</v>
+      </c>
+      <c r="K203">
+        <v>3984086.237224712</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>98</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.619078655</v>
+      </c>
+      <c r="G204">
+        <v>4841717.846502808</v>
+      </c>
+      <c r="H204">
+        <v>3986282.709152461</v>
+      </c>
+      <c r="I204">
+        <v>1117082.456506181</v>
+      </c>
+      <c r="J204">
+        <v>4841135.35306055</v>
+      </c>
+      <c r="K204">
+        <v>3983753.789510122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>98</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.061287191</v>
+      </c>
+      <c r="G205">
+        <v>4841734.359317999</v>
+      </c>
+      <c r="H205">
+        <v>3986290.915222962</v>
+      </c>
+      <c r="I205">
+        <v>1117166.745969932</v>
+      </c>
+      <c r="J205">
+        <v>4841086.701431143</v>
+      </c>
+      <c r="K205">
+        <v>3983406.193136793</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>98</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.525648334</v>
+      </c>
+      <c r="G206">
+        <v>4841750.872133192</v>
+      </c>
+      <c r="H206">
+        <v>3986298.902791567</v>
+      </c>
+      <c r="I206">
+        <v>1117253.110984183</v>
+      </c>
+      <c r="J206">
+        <v>4841038.049801737</v>
+      </c>
+      <c r="K206">
+        <v>3983043.448104726</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>98</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.010733865</v>
+      </c>
+      <c r="G207">
+        <v>4841767.384948384</v>
+      </c>
+      <c r="H207">
+        <v>3986306.683193154</v>
+      </c>
+      <c r="I207">
+        <v>1117341.602657455</v>
+      </c>
+      <c r="J207">
+        <v>4840989.398172331</v>
+      </c>
+      <c r="K207">
+        <v>3982665.55441392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>98</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.515241213</v>
+      </c>
+      <c r="G208">
+        <v>4841783.897763575</v>
+      </c>
+      <c r="H208">
+        <v>3986314.266902855</v>
+      </c>
+      <c r="I208">
+        <v>1117432.273356771</v>
+      </c>
+      <c r="J208">
+        <v>4840940.746542925</v>
+      </c>
+      <c r="K208">
+        <v>3982272.512064376</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>98</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.037979593</v>
+      </c>
+      <c r="G209">
+        <v>4841800.410578768</v>
+      </c>
+      <c r="H209">
+        <v>3986321.663620858</v>
+      </c>
+      <c r="I209">
+        <v>1117525.176738642</v>
+      </c>
+      <c r="J209">
+        <v>4840892.094913519</v>
+      </c>
+      <c r="K209">
+        <v>3981864.321056093</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>98</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.57785797</v>
+      </c>
+      <c r="G210">
+        <v>4841816.923393959</v>
+      </c>
+      <c r="H210">
+        <v>3986328.882347015</v>
+      </c>
+      <c r="I210">
+        <v>1117620.367780822</v>
+      </c>
+      <c r="J210">
+        <v>4840843.443284113</v>
+      </c>
+      <c r="K210">
+        <v>3981440.981389072</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>98</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.133874568</v>
+      </c>
+      <c r="G211">
+        <v>4841833.436209151</v>
+      </c>
+      <c r="H211">
+        <v>3986335.931446678</v>
+      </c>
+      <c r="I211">
+        <v>1117717.902814842</v>
+      </c>
+      <c r="J211">
+        <v>4840794.791654707</v>
+      </c>
+      <c r="K211">
+        <v>3981002.493063313</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>98</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.705107698</v>
+      </c>
+      <c r="G212">
+        <v>4841849.949024343</v>
+      </c>
+      <c r="H212">
+        <v>3986342.818708974</v>
+      </c>
+      <c r="I212">
+        <v>1117817.839559343</v>
+      </c>
+      <c r="J212">
+        <v>4840746.140025301</v>
+      </c>
+      <c r="K212">
+        <v>3980548.856078816</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>98</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.29070771</v>
+      </c>
+      <c r="G213">
+        <v>4841866.461839535</v>
+      </c>
+      <c r="H213">
+        <v>3986349.551398545</v>
+      </c>
+      <c r="I213">
+        <v>1117920.237154238</v>
+      </c>
+      <c r="J213">
+        <v>4840697.488395894</v>
+      </c>
+      <c r="K213">
+        <v>3980080.07043558</v>
       </c>
     </row>
   </sheetData>
